--- a/Otros documentos/Documentación/Historias_Usuario_CatchAI.xlsx
+++ b/Otros documentos/Documentación/Historias_Usuario_CatchAI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\archivos capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981B287-4C9C-4283-98FC-93288B1142CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88429F56-DA4B-4E68-B0A3-FE548731F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,18 +58,6 @@
     <t>H9</t>
   </si>
   <si>
-    <t>Como persona sorda, quiero recibir la traducción de un video en LSCh, para comprender la información transmitida.</t>
-  </si>
-  <si>
-    <t>Como persona sorda, quiero que las palabras no reconocidas se deletreen en LSCh, para no perder el sentido del mensaje.</t>
-  </si>
-  <si>
-    <t>Como persona sorda, quiero que el avatar tenga un estilo uniforme y semi-formal, para que la información sea clara y no distraiga.</t>
-  </si>
-  <si>
-    <t>Como locutor, quiero enviar un video con mi voz y obtener la traducción en LSCh, para que mi mensaje llegue a la comunidad sorda.</t>
-  </si>
-  <si>
     <t>Como administrador técnico, quiero que cada procesamiento genere un log con fecha y estado, para llevar trazabilidad del sistema.</t>
   </si>
   <si>
@@ -82,15 +70,6 @@
     <t>Como stakeholder, quiero que el sistema sea escalable a futuro, para usarlo en contextos educativos y gubernamentales.</t>
   </si>
   <si>
-    <t>El sistema debe devolver un video con avatar que ejecute señas comprensibles.</t>
-  </si>
-  <si>
-    <t>Si la palabra no está en el diccionario, el sistema deberá ejecutar deletreo.</t>
-  </si>
-  <si>
-    <t>Todas las animaciones deben mantener coherencia de estilo.</t>
-  </si>
-  <si>
     <t>Endpoint /process/video debe devolver un video con avatar en un máximo de 10 segundos por cada minuto procesado.</t>
   </si>
   <si>
@@ -110,6 +89,27 @@
   </si>
   <si>
     <t>Media (Backlog)</t>
+  </si>
+  <si>
+    <t>El sistema deberá devolver un video con avatar cuyas señas resulten legibles según rúbrica interna (≥80% de cumplimiento en claridad de configuración de manos, orientación y transición), con dos evaluadores internos independientes y evidencia en video.</t>
+  </si>
+  <si>
+    <t>Si una palabra no está en el diccionario, el sistema deberá aplicar deletreo en LSCh manteniendo ritmo y sincronía con el audio, y registrar en log cada ocurrencia de fallback.</t>
+  </si>
+  <si>
+    <t>Todas las animaciones deberán mantener coherencia de estilo (postura base, velocidad, suavidad de transiciones) verificadas con checklist interno y comparación de una animación patrón.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero recibir la traducción de un video en LSCh, para comprender la información transmitida.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que las palabras no reconocidas se deletreen en LSCh, para no perder el sentido del mensaje.</t>
+  </si>
+  <si>
+    <t>Como locutor/animador, quiero enviar un video con mi voz y obtener la traducción en LSCh, para que mi mensaje llegue a la comunidad sorda.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que el avatar tenga un estilo realista, uniforme y semi-formal, para que la información sea clara y no distraiga.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,46 +507,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -554,13 +554,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -568,13 +568,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -582,13 +582,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -596,13 +596,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -610,13 +610,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Otros documentos/Documentación/Historias_Usuario_CatchAI.xlsx
+++ b/Otros documentos/Documentación/Historias_Usuario_CatchAI.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\archivos capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88429F56-DA4B-4E68-B0A3-FE548731F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B75FE6-549A-4F6B-896A-C741E4A61D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,9 +63,6 @@
     <t>H9</t>
   </si>
   <si>
-    <t>Como administrador técnico, quiero que cada procesamiento genere un log con fecha y estado, para llevar trazabilidad del sistema.</t>
-  </si>
-  <si>
     <t>Como administrador técnico, quiero que el sistema sea ejecutable en computadores locales, para no depender de la nube.</t>
   </si>
   <si>
@@ -70,46 +72,49 @@
     <t>Como stakeholder, quiero que el sistema sea escalable a futuro, para usarlo en contextos educativos y gubernamentales.</t>
   </si>
   <si>
-    <t>Endpoint /process/video debe devolver un video con avatar en un máximo de 10 segundos por cada minuto procesado.</t>
-  </si>
-  <si>
-    <t>100% de las solicitudes deben dejar registro en logs cifrados.</t>
-  </si>
-  <si>
-    <t>El sistema deberá funcionar en Linux y Windows con equipos de gama media.</t>
-  </si>
-  <si>
-    <t>El sistema deberá procesar un bloque de noticias grabado de 5 minutos en ≤60 segundos.</t>
-  </si>
-  <si>
-    <t>El diseño modular debe permitir crecimiento en vocabulario y avatar.</t>
-  </si>
-  <si>
     <t>Alta (MVP)</t>
   </si>
   <si>
     <t>Media (Backlog)</t>
   </si>
   <si>
-    <t>El sistema deberá devolver un video con avatar cuyas señas resulten legibles según rúbrica interna (≥80% de cumplimiento en claridad de configuración de manos, orientación y transición), con dos evaluadores internos independientes y evidencia en video.</t>
-  </si>
-  <si>
-    <t>Si una palabra no está en el diccionario, el sistema deberá aplicar deletreo en LSCh manteniendo ritmo y sincronía con el audio, y registrar en log cada ocurrencia de fallback.</t>
-  </si>
-  <si>
-    <t>Todas las animaciones deberán mantener coherencia de estilo (postura base, velocidad, suavidad de transiciones) verificadas con checklist interno y comparación de una animación patrón.</t>
-  </si>
-  <si>
-    <t>Como operador/mediador de comunicación (asistente de producción), quiero recibir la traducción de un video en LSCh, para comprender la información transmitida.</t>
-  </si>
-  <si>
-    <t>Como operador/mediador de comunicación (asistente de producción), quiero que las palabras no reconocidas se deletreen en LSCh, para no perder el sentido del mensaje.</t>
-  </si>
-  <si>
-    <t>Como locutor/animador, quiero enviar un video con mi voz y obtener la traducción en LSCh, para que mi mensaje llegue a la comunidad sorda.</t>
-  </si>
-  <si>
-    <t>Como operador/mediador de comunicación (asistente de producción), quiero que el avatar tenga un estilo realista, uniforme y semi-formal, para que la información sea clara y no distraiga.</t>
+    <t>El sistema deberá devolver un video con avatar cuyas representaciones visuales sean comprensibles y coherentes según rúbrica interna (≥80% de cumplimiento en claridad de configuración de manos, orientación y transición), validadas por un evaluador independiente.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero recibir la representación visual en Español Signado de un video, para comprender la información transmitida.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que las palabras no reconocidas sean deletreadas visualmente, para no perder el sentido del mensaje.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que el avatar mantenga un estilo realista, uniforme y semi-formal, para que la información sea clara y no distraiga.</t>
+  </si>
+  <si>
+    <t>Como locutor/animador, quiero enviar un video con mi voz y obtener su representación visual en Español Signado, para que mi mensaje llegue de forma más accesible.</t>
+  </si>
+  <si>
+    <t>Como administrador técnico, quiero que parte del procesamiento genere un log con fecha y estado, para llevar trazabilidad del sistema.</t>
+  </si>
+  <si>
+    <t>100% de las solicitudes deben dejar registro en logs.</t>
+  </si>
+  <si>
+    <t>Si una palabra no está en el diccionario base del Español Signado, el sistema deberá aplicar deletreo visual adaptado manteniendo ritmo y sincronía con el audio.</t>
+  </si>
+  <si>
+    <t>Todas las animaciones deberán mantener coherencia de estilo (postura base, velocidad, suavidad de transiciones) verificadas mediante checklist interno y comparación con una animación patrón.</t>
+  </si>
+  <si>
+    <t>El endpoint /process/video deberá devolver un video con avatar en un máximo de 10 segundos por cada minuto procesado, manteniendo una latencia promedio ≤10 s en 95% de los casos.</t>
+  </si>
+  <si>
+    <t>El sistema deberá funcionar correctamente en Linux (Ubuntu 22.04) y Windows 10/11, en equipos de gama media con CPU estándar, sin necesidad de GPU dedicada.</t>
+  </si>
+  <si>
+    <t>El sistema deberá procesar un bloque de noticias grabado de 2 minutos en ≤60 segundos, entregando una animación coherente con el audio y transcripción.</t>
+  </si>
+  <si>
+    <t>El diseño modular deberá permitir la ampliación del diccionario de gestos, incorporación de modelos lingüísticos y personalización del avatar sin alterar la arquitectura base.</t>
   </si>
 </sst>
 </file>
@@ -483,17 +488,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="70.21875" customWidth="1"/>
-    <col min="3" max="3" width="77.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="70.23046875" customWidth="1"/>
+    <col min="3" max="3" width="77.07421875" customWidth="1"/>
+    <col min="4" max="4" width="24.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,116 +512,116 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
